--- a/data_analysis/data.xlsx
+++ b/data_analysis/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I539556/Desktop/python-training/python-training/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6639682-50C8-EA4F-A106-14F5F9D82C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4876E8-4644-D94F-86E6-68D4901EA59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{890CA670-4754-444D-8CB2-AE61D09E44BA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{890CA670-4754-444D-8CB2-AE61D09E44BA}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Serial Number</t>
   </si>
@@ -108,6 +108,39 @@
   </si>
   <si>
     <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>Type of product</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>PDU</t>
+  </si>
+  <si>
+    <t>1.08 BTC</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
   </si>
 </sst>
 </file>
@@ -460,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDC8F45-5D2A-4F47-A3E0-B73CD6FF7AC8}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,18 +507,19 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,37 +539,40 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,31 +592,34 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
       <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
         <v>4</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,31 +639,34 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
       <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>30</v>
       </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -643,28 +686,207 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
       <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>30</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>6</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45080</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45080</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45080</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>149</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45080</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
